--- a/Documentação/Planilhas/Layouts/Logistica_Pontualidade.xlsx
+++ b/Documentação/Planilhas/Layouts/Logistica_Pontualidade.xlsx
@@ -4,21 +4,40 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864"/>
   </bookViews>
   <sheets>
-    <sheet name="aux_pontualidade_pivot" sheetId="257" r:id="rId1"/>
-    <sheet name="stg_pontualidade_pedido" sheetId="262" r:id="rId2"/>
-    <sheet name="stg_pontualidade_ped_cancelado" sheetId="263" r:id="rId3"/>
-    <sheet name="Resumo" sheetId="93" r:id="rId4"/>
-    <sheet name="stg_planta" sheetId="264" r:id="rId5"/>
+    <sheet name="Resumo" sheetId="93" r:id="rId1"/>
+    <sheet name="aux_fact_pontualidade_update" sheetId="280" r:id="rId2"/>
+    <sheet name="aux_pontualidade_calculada" sheetId="283" r:id="rId3"/>
+    <sheet name="aux_pontualidade_detalhe_update" sheetId="272" r:id="rId4"/>
+    <sheet name="aux_pontualidade_pivot" sheetId="257" r:id="rId5"/>
+    <sheet name="aux_pontualidade_update" sheetId="274" r:id="rId6"/>
+    <sheet name="dim_mega_rota" sheetId="278" r:id="rId7"/>
+    <sheet name="dim_ocorrencia" sheetId="276" r:id="rId8"/>
+    <sheet name="dim_planta" sheetId="277" r:id="rId9"/>
+    <sheet name="dim_status_pontualidade" sheetId="275" r:id="rId10"/>
+    <sheet name="dim_transportadora" sheetId="279" r:id="rId11"/>
+    <sheet name="fact_pontualidade" sheetId="281" r:id="rId12"/>
+    <sheet name="ods_mega_rota" sheetId="269" r:id="rId13"/>
+    <sheet name="ods_ocorrencia" sheetId="270" r:id="rId14"/>
+    <sheet name="ods_planta" sheetId="268" r:id="rId15"/>
+    <sheet name="ods_pontualidade" sheetId="273" r:id="rId16"/>
+    <sheet name="ods_pontualidade_detalhe" sheetId="282" r:id="rId17"/>
+    <sheet name="ods_transportadora" sheetId="271" r:id="rId18"/>
+    <sheet name="stg_mega_rota" sheetId="265" r:id="rId19"/>
+    <sheet name="stg_ocorrencia" sheetId="266" r:id="rId20"/>
+    <sheet name="stg_planta" sheetId="264" r:id="rId21"/>
+    <sheet name="stg_pontualidade_pedido" sheetId="262" r:id="rId22"/>
+    <sheet name="stg_pontualidade_ped_cancelado" sheetId="263" r:id="rId23"/>
+    <sheet name="stg_transportadora" sheetId="267" r:id="rId24"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="245">
   <si>
     <t>Campo</t>
   </si>
@@ -339,6 +358,420 @@
   </si>
   <si>
     <t>filial</t>
+  </si>
+  <si>
+    <t>[log].[stg_mega_rota]</t>
+  </si>
+  <si>
+    <t>MEGA_ID_MEGA_ROTA</t>
+  </si>
+  <si>
+    <t>MEGA_NOME</t>
+  </si>
+  <si>
+    <t>Identifica a Mega Rota através da sua descrição. Ex: BAHIA, BRASIL, RIO DE JANEIRO, SAO PAULO, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Mega Rota através do seu código. Ex: BA, BR, RJ, SP, etc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mega_rota </t>
+  </si>
+  <si>
+    <t>[log].[stg_ocorrencia]</t>
+  </si>
+  <si>
+    <t>ETRK_ID_EVENTO</t>
+  </si>
+  <si>
+    <t>ETRK_NOME</t>
+  </si>
+  <si>
+    <t>Identifica a ocorrência através do seu código. Ex: 1, 2, 3, 4, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Ocorrência através da sua descrição. Ex: RECEBIMENTO DO HOST, INCLUSAO EM PROGRAMA DE COLETA, INCLUSAO EM ONDA DE COLETA, etc</t>
+  </si>
+  <si>
+    <t>PFRIOW.EVENTO_TRACKING</t>
+  </si>
+  <si>
+    <t>[log].[stg_transportadora]</t>
+  </si>
+  <si>
+    <t>TRAS_ID_TRANSPORTADORA</t>
+  </si>
+  <si>
+    <t>TRAS_NOME</t>
+  </si>
+  <si>
+    <t>TRAS_APELIDO</t>
+  </si>
+  <si>
+    <t>TRAS_ID_GRUPO</t>
+  </si>
+  <si>
+    <t>Identifica a transportadora através do seu CNPJ sem qualquer separador. Ex: 25100223008560, 82800467000261, 2793723000110, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Transportadora através da sua Razão Social. Ex: Transvale Transportes de Cargas e Encome, Recris Transportes e Logistica Ltda, Rent a Truck Operador Logístico Ltda, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Transportadora através do seu apelido. Ex: STARLOG, RAMOS, RECRIS, TTCE, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Grupo da Transportadora através do seu CNPJ sem qualquer separador. Ex: 25100223008560, 82800467000261, 2793723000110, etc</t>
+  </si>
+  <si>
+    <t>PFRIOW.Transportadora</t>
+  </si>
+  <si>
+    <t>[log].[ods_planta]</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Logistica Prod\Pontualidade\ods_logistica_pontualidade.dtsx</t>
+  </si>
+  <si>
+    <t>nr_id_planta</t>
+  </si>
+  <si>
+    <t>cod_planta</t>
+  </si>
+  <si>
+    <t>id_terceiro_planta</t>
+  </si>
+  <si>
+    <t>ds_planta</t>
+  </si>
+  <si>
+    <t>nr_id_filial</t>
+  </si>
+  <si>
+    <t>cod_filial</t>
+  </si>
+  <si>
+    <t>ds_filial</t>
+  </si>
+  <si>
+    <t>cgc_filial</t>
+  </si>
+  <si>
+    <t>nr_id_cia</t>
+  </si>
+  <si>
+    <t>ds_cia</t>
+  </si>
+  <si>
+    <t>Identifica a Planta através do seu código interno. Ex: 1, 2, 3, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Filial através do seu código interno. Ex: 1, 11, 12, etc</t>
+  </si>
+  <si>
+    <t>log.stg_planta</t>
+  </si>
+  <si>
+    <t>log.ods_filial</t>
+  </si>
+  <si>
+    <t>MIS_DATA_QUALITY</t>
+  </si>
+  <si>
+    <t>log.dq_planta_amigavel</t>
+  </si>
+  <si>
+    <t>[log].[ods_mega_rota]</t>
+  </si>
+  <si>
+    <t>nr_id_mega_rota</t>
+  </si>
+  <si>
+    <t>cod_mega_rota</t>
+  </si>
+  <si>
+    <t>ds_mega_rota</t>
+  </si>
+  <si>
+    <t>Identifica a Mega Rota através do seu código interno. Ex: 1, 2, 3, etc</t>
+  </si>
+  <si>
+    <t>log.stg_mega_rota</t>
+  </si>
+  <si>
+    <t>log.dq_mega_rota</t>
+  </si>
+  <si>
+    <t>[log].[ods_ocorrencia]</t>
+  </si>
+  <si>
+    <t>nr_id_ocorrencia</t>
+  </si>
+  <si>
+    <t>ds_ocorrencia</t>
+  </si>
+  <si>
+    <t>log.stg_ocorrencia</t>
+  </si>
+  <si>
+    <t>[log].[ods_transportadora]</t>
+  </si>
+  <si>
+    <t>nr_id_transp</t>
+  </si>
+  <si>
+    <t>ds_nome_transp</t>
+  </si>
+  <si>
+    <t>ds_apelido_transp</t>
+  </si>
+  <si>
+    <t>nr_id_grupo</t>
+  </si>
+  <si>
+    <t>log.stg_transportadora</t>
+  </si>
+  <si>
+    <t>[log].[aux_pontualidade_detalhe_update]</t>
+  </si>
+  <si>
+    <t>nr_date_registro</t>
+  </si>
+  <si>
+    <t>nr_time_registro</t>
+  </si>
+  <si>
+    <t>nr_date_limite_exp</t>
+  </si>
+  <si>
+    <t>nr_time_horario_corte</t>
+  </si>
+  <si>
+    <t>nr_soma_dia_corte</t>
+  </si>
+  <si>
+    <t>nr_ult_id_evento</t>
+  </si>
+  <si>
+    <t>nr_ult_dt_evento</t>
+  </si>
+  <si>
+    <t>nr_ult_tm_evento</t>
+  </si>
+  <si>
+    <t>nr_transp</t>
+  </si>
+  <si>
+    <t>nr_carga</t>
+  </si>
+  <si>
+    <t>nr_cia</t>
+  </si>
+  <si>
+    <t>nr_id_unineg</t>
+  </si>
+  <si>
+    <t>ds_cliente_nome</t>
+  </si>
+  <si>
+    <t>ds_cliente_email</t>
+  </si>
+  <si>
+    <t>ds_tipo_entrega</t>
+  </si>
+  <si>
+    <t>ds_cliente_tel</t>
+  </si>
+  <si>
+    <t>ds_cliente_tel2</t>
+  </si>
+  <si>
+    <t>nr_tipo_entrega</t>
+  </si>
+  <si>
+    <t>Identifica a data do registro no formato AAAAMMDD</t>
+  </si>
+  <si>
+    <t>Identifica a hora do registro no formato HHMM</t>
+  </si>
+  <si>
+    <t>Identifica a data limite da expedição no formato AAAAMMDD</t>
+  </si>
+  <si>
+    <t>Identifica a hora do corte no formato HHMM</t>
+  </si>
+  <si>
+    <t>Identifica a carga através do seu número</t>
+  </si>
+  <si>
+    <t>Identifica a Unidade de Negócio através do seu código. Ex: 13, etc</t>
+  </si>
+  <si>
+    <t>Identifica a data do último evento tracking no formato AAAAMMDD</t>
+  </si>
+  <si>
+    <t>Identifica a hora do último evento tracking no formato HHMM</t>
+  </si>
+  <si>
+    <t>Identifica o dia de corte através do seu código. Ex: 0, 1</t>
+  </si>
+  <si>
+    <t>log.stg_pontualidade_pedido</t>
+  </si>
+  <si>
+    <t>log.aux_pontualidade_pivot</t>
+  </si>
+  <si>
+    <t>log.ods_planta</t>
+  </si>
+  <si>
+    <t>log.ods_mega_rota</t>
+  </si>
+  <si>
+    <t>log.ods_horario_corte</t>
+  </si>
+  <si>
+    <t>log.aux_pontualidade_detalhe_update</t>
+  </si>
+  <si>
+    <t>[log].[ods_pontualidade]</t>
+  </si>
+  <si>
+    <t>nr_id_product</t>
+  </si>
+  <si>
+    <t>nr_id_status_pontualidade</t>
+  </si>
+  <si>
+    <t>nr_id_ult_evento</t>
+  </si>
+  <si>
+    <t>nr_date_ult_evento</t>
+  </si>
+  <si>
+    <t>qtde_ped</t>
+  </si>
+  <si>
+    <t>vl_item_total</t>
+  </si>
+  <si>
+    <t>nr_volume</t>
+  </si>
+  <si>
+    <t>Identifica o produto através do seu código. Ex: 263791, 36275, 360737, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Status da Pontualidade através do seu código. Ex: 1, 2, 5, etc</t>
+  </si>
+  <si>
+    <t>Quantidade de produtos pedidos</t>
+  </si>
+  <si>
+    <t>Valor total do item</t>
+  </si>
+  <si>
+    <t>Volume do item</t>
+  </si>
+  <si>
+    <t>Identifica a carga através do seu número. Ex: 1121630, etc</t>
+  </si>
+  <si>
+    <t>MIS_DW</t>
+  </si>
+  <si>
+    <t>ods_approved</t>
+  </si>
+  <si>
+    <t>log.aux_pontualidade_calculada</t>
+  </si>
+  <si>
+    <t>ods_product</t>
+  </si>
+  <si>
+    <t>[log].[aux_pontualidade_update]</t>
+  </si>
+  <si>
+    <t>nr_dt_ult_evento</t>
+  </si>
+  <si>
+    <t>log.aux_pontualidade_update</t>
+  </si>
+  <si>
+    <t>log.stg_pontualidade_pedido_cancelado</t>
+  </si>
+  <si>
+    <t>[log].[dim_status_pontualidade]</t>
+  </si>
+  <si>
+    <t>MIS_DATA_WAREHOUSE</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Logistica Prod\Pontualidade\olap_logistica_pontualidade.dtsx</t>
+  </si>
+  <si>
+    <t>ds_status_pontualidade</t>
+  </si>
+  <si>
+    <t>Identifica o status da pontualidade através do seu código interno. Ex: 1, 2, 3, 4, etc</t>
+  </si>
+  <si>
+    <t>Identifica o status da pontualidade através da sua descrição. Ex: Não Atrasado, Atraso Operação, Atraso Aprovação, etc</t>
+  </si>
+  <si>
+    <t>log.ods_status_pontualidade</t>
+  </si>
+  <si>
+    <t>[log].[dim_ocorrencia]</t>
+  </si>
+  <si>
+    <t>Identifica a ocorrência através do seu código interno. Ex: 1, 2, 3, 4, etc</t>
+  </si>
+  <si>
+    <t>Identifica a ocorrência através da sua descrição. Ex: RECEBIMENTO DO HOST, INCLUSAO EM PROGRAMA DE COLETA, etc</t>
+  </si>
+  <si>
+    <t>log.ods_ocorrencia</t>
+  </si>
+  <si>
+    <t>[log].[dim_planta]</t>
+  </si>
+  <si>
+    <t>[log].[dim_mega_rota]</t>
+  </si>
+  <si>
+    <t>[log].[dim_transportadora]</t>
+  </si>
+  <si>
+    <t>log.ods_transportadora</t>
+  </si>
+  <si>
+    <t>[log].[aux_fact_pontualidade_update]</t>
+  </si>
+  <si>
+    <t>log.ods_pontualidade</t>
+  </si>
+  <si>
+    <t>[log].[fact_pontualidade]</t>
+  </si>
+  <si>
+    <t>log.aux_fact_pontualidade_update</t>
+  </si>
+  <si>
+    <t>[log].[ods_pontualidade_detalhe]</t>
+  </si>
+  <si>
+    <t>[log].[aux_pontualidade_calculada]</t>
+  </si>
+  <si>
+    <t>nr_ult_transp</t>
+  </si>
+  <si>
+    <t>Identifica o Status da Pontualidade através do seu código interno. Ex: 1, 2, etc</t>
+  </si>
+  <si>
+    <t>log.ods_pontualidade_detalhe</t>
+  </si>
+  <si>
+    <t>log.status_pontualidade</t>
   </si>
 </sst>
 </file>
@@ -650,7 +1083,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -695,7 +1128,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -777,7 +1209,637 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing23.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -868,6 +1930,231 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1198,11 +2485,436 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="B2:E27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="52.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="89.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.140625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="15">
+      <c r="B3" s="20" t="str">
+        <f>aux_fact_pontualidade_update!B9</f>
+        <v>[log].[aux_fact_pontualidade_update]</v>
+      </c>
+      <c r="C3" s="18" t="str">
+        <f>aux_fact_pontualidade_update!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D3" s="19" t="str">
+        <f>aux_fact_pontualidade_update!B10</f>
+        <v>N:\Migracao\Logistica Prod\Pontualidade\olap_logistica_pontualidade.dtsx</v>
+      </c>
+      <c r="E3" s="13"/>
+    </row>
+    <row r="4" spans="2:5" ht="15">
+      <c r="B4" s="20" t="str">
+        <f>aux_pontualidade_calculada!B9</f>
+        <v>[log].[aux_pontualidade_calculada]</v>
+      </c>
+      <c r="C4" s="18" t="str">
+        <f>aux_pontualidade_calculada!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D4" s="19" t="str">
+        <f>aux_pontualidade_calculada!B10</f>
+        <v>N:\Migracao\Logistica Prod\Pontualidade\ods_logistica_pontualidade.dtsx</v>
+      </c>
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" spans="2:5" ht="15">
+      <c r="B5" s="20" t="str">
+        <f>aux_pontualidade_detalhe_update!B9</f>
+        <v>[log].[aux_pontualidade_detalhe_update]</v>
+      </c>
+      <c r="C5" s="18" t="str">
+        <f>aux_pontualidade_detalhe_update!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D5" s="19" t="str">
+        <f>aux_pontualidade_detalhe_update!B10</f>
+        <v>N:\Migracao\Logistica Prod\Pontualidade\ods_logistica_pontualidade.dtsx</v>
+      </c>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" spans="2:5" ht="15">
+      <c r="B6" s="20" t="str">
+        <f>aux_pontualidade_pivot!B9</f>
+        <v>[log].[aux_pontualidade_pivot]</v>
+      </c>
+      <c r="C6" s="18" t="str">
+        <f>aux_pontualidade_pivot!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D6" s="19" t="str">
+        <f>aux_pontualidade_pivot!B10</f>
+        <v>N:\Migracao\Logistica Prod\Pontualidade\stg_logistica_pontualidade.dtsx</v>
+      </c>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" spans="2:5" ht="15">
+      <c r="B7" s="20" t="str">
+        <f>aux_pontualidade_update!B9</f>
+        <v>[log].[aux_pontualidade_update]</v>
+      </c>
+      <c r="C7" s="18" t="str">
+        <f>aux_pontualidade_update!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D7" s="19" t="str">
+        <f>aux_pontualidade_update!B10</f>
+        <v>N:\Migracao\Logistica Prod\Pontualidade\ods_logistica_pontualidade.dtsx</v>
+      </c>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" spans="2:5" ht="15">
+      <c r="B8" s="20" t="str">
+        <f>dim_mega_rota!B9</f>
+        <v>[log].[dim_mega_rota]</v>
+      </c>
+      <c r="C8" s="18" t="str">
+        <f>dim_mega_rota!B8</f>
+        <v>MIS_DATA_WAREHOUSE</v>
+      </c>
+      <c r="D8" s="19" t="str">
+        <f>dim_mega_rota!B10</f>
+        <v>N:\Migracao\Logistica Prod\Pontualidade\olap_logistica_pontualidade.dtsx</v>
+      </c>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" spans="2:5" ht="15">
+      <c r="B9" s="20" t="str">
+        <f>dim_ocorrencia!B9</f>
+        <v>[log].[dim_ocorrencia]</v>
+      </c>
+      <c r="C9" s="18" t="str">
+        <f>dim_ocorrencia!B8</f>
+        <v>MIS_DATA_WAREHOUSE</v>
+      </c>
+      <c r="D9" s="19" t="str">
+        <f>dim_ocorrencia!B10</f>
+        <v>N:\Migracao\Logistica Prod\Pontualidade\olap_logistica_pontualidade.dtsx</v>
+      </c>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" spans="2:5" ht="15">
+      <c r="B10" s="20" t="str">
+        <f>dim_planta!B9</f>
+        <v>[log].[dim_planta]</v>
+      </c>
+      <c r="C10" s="18" t="str">
+        <f>dim_planta!B8</f>
+        <v>MIS_DATA_WAREHOUSE</v>
+      </c>
+      <c r="D10" s="19" t="str">
+        <f>dim_planta!B10</f>
+        <v>N:\Migracao\Logistica Prod\Pontualidade\olap_logistica_pontualidade.dtsx</v>
+      </c>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" spans="2:5" ht="15">
+      <c r="B11" s="20" t="str">
+        <f>dim_status_pontualidade!B9</f>
+        <v>[log].[dim_status_pontualidade]</v>
+      </c>
+      <c r="C11" s="18" t="str">
+        <f>dim_status_pontualidade!B8</f>
+        <v>MIS_DATA_WAREHOUSE</v>
+      </c>
+      <c r="D11" s="19" t="str">
+        <f>dim_status_pontualidade!B10</f>
+        <v>N:\Migracao\Logistica Prod\Pontualidade\olap_logistica_pontualidade.dtsx</v>
+      </c>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" spans="2:5" ht="15">
+      <c r="B12" s="20" t="str">
+        <f>dim_transportadora!B9</f>
+        <v>[log].[dim_transportadora]</v>
+      </c>
+      <c r="C12" s="18" t="str">
+        <f>dim_transportadora!B8</f>
+        <v>MIS_DATA_WAREHOUSE</v>
+      </c>
+      <c r="D12" s="19" t="str">
+        <f>dim_transportadora!B10</f>
+        <v>N:\Migracao\Logistica Prod\Pontualidade\olap_logistica_pontualidade.dtsx</v>
+      </c>
+      <c r="E12" s="13"/>
+    </row>
+    <row r="13" spans="2:5" ht="15">
+      <c r="B13" s="20" t="str">
+        <f>fact_pontualidade!B9</f>
+        <v>[log].[fact_pontualidade]</v>
+      </c>
+      <c r="C13" s="18" t="str">
+        <f>fact_pontualidade!B8</f>
+        <v>MIS_DATA_WAREHOUSE</v>
+      </c>
+      <c r="D13" s="19" t="str">
+        <f>fact_pontualidade!B10</f>
+        <v>N:\Migracao\Logistica Prod\Pontualidade\olap_logistica_pontualidade.dtsx</v>
+      </c>
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" spans="2:5" ht="15">
+      <c r="B14" s="20" t="str">
+        <f>ods_mega_rota!B9</f>
+        <v>[log].[ods_mega_rota]</v>
+      </c>
+      <c r="C14" s="18" t="str">
+        <f>ods_mega_rota!B8</f>
+        <v>MIS_ODS</v>
+      </c>
+      <c r="D14" s="19" t="str">
+        <f>ods_mega_rota!B10</f>
+        <v>N:\Migracao\Logistica Prod\Pontualidade\ods_logistica_pontualidade.dtsx</v>
+      </c>
+      <c r="E14" s="13"/>
+    </row>
+    <row r="15" spans="2:5" ht="15">
+      <c r="B15" s="20" t="str">
+        <f>ods_ocorrencia!B9</f>
+        <v>[log].[ods_ocorrencia]</v>
+      </c>
+      <c r="C15" s="18" t="str">
+        <f>ods_ocorrencia!B8</f>
+        <v>MIS_ODS</v>
+      </c>
+      <c r="D15" s="19" t="str">
+        <f>ods_ocorrencia!B10</f>
+        <v>N:\Migracao\Logistica Prod\Pontualidade\ods_logistica_pontualidade.dtsx</v>
+      </c>
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" spans="2:5" ht="15">
+      <c r="B16" s="20" t="str">
+        <f>ods_planta!B9</f>
+        <v>[log].[ods_planta]</v>
+      </c>
+      <c r="C16" s="18" t="str">
+        <f>ods_planta!B8</f>
+        <v>MIS_ODS</v>
+      </c>
+      <c r="D16" s="19" t="str">
+        <f>ods_planta!B10</f>
+        <v>N:\Migracao\Logistica Prod\Pontualidade\ods_logistica_pontualidade.dtsx</v>
+      </c>
+      <c r="E16" s="13"/>
+    </row>
+    <row r="17" spans="2:5" ht="15">
+      <c r="B17" s="20" t="str">
+        <f>ods_pontualidade!B9</f>
+        <v>[log].[ods_pontualidade]</v>
+      </c>
+      <c r="C17" s="18" t="str">
+        <f>ods_pontualidade!B8</f>
+        <v>MIS_ODS</v>
+      </c>
+      <c r="D17" s="19" t="str">
+        <f>ods_pontualidade!B10</f>
+        <v>N:\Migracao\Logistica Prod\Pontualidade\ods_logistica_pontualidade.dtsx</v>
+      </c>
+      <c r="E17" s="13"/>
+    </row>
+    <row r="18" spans="2:5" ht="15">
+      <c r="B18" s="20" t="str">
+        <f>ods_pontualidade_detalhe!B9</f>
+        <v>[log].[ods_pontualidade_detalhe]</v>
+      </c>
+      <c r="C18" s="18" t="str">
+        <f>ods_pontualidade_detalhe!B8</f>
+        <v>MIS_ODS</v>
+      </c>
+      <c r="D18" s="19" t="str">
+        <f>ods_pontualidade_detalhe!B10</f>
+        <v>N:\Migracao\Logistica Prod\Pontualidade\ods_logistica_pontualidade.dtsx</v>
+      </c>
+      <c r="E18" s="13"/>
+    </row>
+    <row r="19" spans="2:5" ht="15">
+      <c r="B19" s="20" t="str">
+        <f>ods_transportadora!B9</f>
+        <v>[log].[ods_transportadora]</v>
+      </c>
+      <c r="C19" s="18" t="str">
+        <f>ods_transportadora!B8</f>
+        <v>MIS_ODS</v>
+      </c>
+      <c r="D19" s="19" t="str">
+        <f>ods_transportadora!B10</f>
+        <v>N:\Migracao\Logistica Prod\Pontualidade\ods_logistica_pontualidade.dtsx</v>
+      </c>
+      <c r="E19" s="13"/>
+    </row>
+    <row r="20" spans="2:5" ht="15">
+      <c r="B20" s="20" t="str">
+        <f>stg_mega_rota!B9</f>
+        <v>[log].[stg_mega_rota]</v>
+      </c>
+      <c r="C20" s="18" t="str">
+        <f>stg_mega_rota!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D20" s="19" t="str">
+        <f>stg_mega_rota!B10</f>
+        <v>N:\Migracao\Logistica Prod\Pontualidade\stg_logistica_pontualidade.dtsx</v>
+      </c>
+      <c r="E20" s="13"/>
+    </row>
+    <row r="21" spans="2:5" ht="15">
+      <c r="B21" s="20" t="str">
+        <f>stg_ocorrencia!B9</f>
+        <v>[log].[stg_ocorrencia]</v>
+      </c>
+      <c r="C21" s="18" t="str">
+        <f>stg_ocorrencia!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D21" s="19" t="str">
+        <f>stg_ocorrencia!B10</f>
+        <v>N:\Migracao\Logistica Prod\Pontualidade\stg_logistica_pontualidade.dtsx</v>
+      </c>
+      <c r="E21" s="13"/>
+    </row>
+    <row r="22" spans="2:5" ht="15">
+      <c r="B22" s="20" t="str">
+        <f>stg_planta!B9</f>
+        <v>[log].[stg_planta]</v>
+      </c>
+      <c r="C22" s="18" t="str">
+        <f>stg_planta!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D22" s="19" t="str">
+        <f>stg_planta!B10</f>
+        <v>N:\Migracao\Logistica Prod\Pontualidade\stg_logistica_pontualidade.dtsx</v>
+      </c>
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" spans="2:5" ht="15">
+      <c r="B23" s="20" t="str">
+        <f>stg_pontualidade_pedido!B9</f>
+        <v>[log].[stg_pontualidade_pedido]</v>
+      </c>
+      <c r="C23" s="18" t="str">
+        <f>stg_pontualidade_pedido!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D23" s="19" t="str">
+        <f>stg_pontualidade_pedido!B10</f>
+        <v>N:\Migracao\Logistica Prod\Pontualidade\stg_logistica_pontualidade.dtsx</v>
+      </c>
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" spans="2:5" ht="15">
+      <c r="B24" s="20" t="str">
+        <f>stg_pontualidade_ped_cancelado!B9</f>
+        <v>[log].[stg_pontualidade_pedido_cancelado]</v>
+      </c>
+      <c r="C24" s="18" t="str">
+        <f>stg_pontualidade_ped_cancelado!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D24" s="19" t="str">
+        <f>stg_pontualidade_ped_cancelado!B10</f>
+        <v>N:\Migracao\Logistica Prod\Pontualidade\stg_logistica_pontualidade.dtsx</v>
+      </c>
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" spans="2:5" ht="15">
+      <c r="B25" s="20" t="str">
+        <f>stg_transportadora!B9</f>
+        <v>[log].[stg_transportadora]</v>
+      </c>
+      <c r="C25" s="18" t="str">
+        <f>stg_transportadora!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D25" s="19" t="str">
+        <f>stg_transportadora!B10</f>
+        <v>N:\Migracao\Logistica Prod\Pontualidade\stg_logistica_pontualidade.dtsx</v>
+      </c>
+      <c r="E25" s="13"/>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="12"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="13"/>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="14"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="16"/>
+    </row>
+  </sheetData>
+  <sortState ref="B3:E25">
+    <sortCondition ref="B3"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="B6" location="aux_pontualidade_pivot!A1" display="aux_pontualidade_pivot!A1"/>
+    <hyperlink ref="B23" location="stg_pontualidade_pedido!A1" display="stg_pontualidade_pedido!A1"/>
+    <hyperlink ref="B24" location="stg_pontualidade_ped_cancelado!A1" display="stg_pontualidade_ped_cancelado!A1"/>
+    <hyperlink ref="B22" location="stg_planta!A1" display="stg_planta!A1"/>
+    <hyperlink ref="B20" location="stg_mega_rota!A1" display="stg_mega_rota!A1"/>
+    <hyperlink ref="B21" location="stg_ocorrencia!A1" display="stg_ocorrencia!A1"/>
+    <hyperlink ref="B25" location="stg_transportadora!A1" display="stg_transportadora!A1"/>
+    <hyperlink ref="B16" location="ods_planta!A1" display="ods_planta!A1"/>
+    <hyperlink ref="B14" location="ods_mega_rota!A1" display="ods_mega_rota!A1"/>
+    <hyperlink ref="B15" location="ods_ocorrencia!A1" display="ods_ocorrencia!A1"/>
+    <hyperlink ref="B19" location="ods_transportadora!A1" display="ods_transportadora!A1"/>
+    <hyperlink ref="B5" location="aux_pontualidade_detalhe_update!A1" display="aux_pontualidade_detalhe_update!A1"/>
+    <hyperlink ref="B17" location="ods_pontualidade!A1" display="ods_pontualidade!A1"/>
+    <hyperlink ref="B7" location="aux_pontualidade_update!A1" display="aux_pontualidade_update!A1"/>
+    <hyperlink ref="B11" location="dim_status_pontualidade!A1" display="dim_status_pontualidade!A1"/>
+    <hyperlink ref="B9" location="dim_ocorrencia!A1" display="dim_ocorrencia!A1"/>
+    <hyperlink ref="B10" location="dim_planta!A1" display="dim_planta!A1"/>
+    <hyperlink ref="B8" location="dim_mega_rota!A1" display="dim_mega_rota!A1"/>
+    <hyperlink ref="B12" location="dim_transportadora!A1" display="dim_transportadora!A1"/>
+    <hyperlink ref="B3" location="aux_fact_pontualidade_update!A1" display="aux_fact_pontualidade_update!A1"/>
+    <hyperlink ref="B13" location="fact_pontualidade!A1" display="fact_pontualidade!A1"/>
+    <hyperlink ref="B18" location="ods_pontualidade_detalhe!A1" display="ods_pontualidade_detalhe!A1"/>
+    <hyperlink ref="B4" location="aux_pontualidade_calculada!A1" display="aux_pontualidade_calculada!A1"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -1240,7 +2952,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1248,7 +2960,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1256,7 +2968,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -1275,112 +2987,28 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
-      <c r="A14" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>16</v>
+      <c r="A14" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>224</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>49</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
       <c r="A15" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1">
-      <c r="A16" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1">
-      <c r="A17" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1">
-      <c r="A18" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30" customHeight="1">
-      <c r="A19" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30" customHeight="1">
-      <c r="A20" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="30" customHeight="1">
-      <c r="A21" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="30" customHeight="1">
-      <c r="A22" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="30" customHeight="1">
-      <c r="A23" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="30" customHeight="1">
-      <c r="A24" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>48</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1389,15 +3017,1127 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:2" ht="30" customHeight="1">
+      <c r="A17" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E34"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:2" ht="30" customHeight="1">
+      <c r="A17" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" customHeight="1">
+      <c r="A18" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" customHeight="1">
+      <c r="A19" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" customHeight="1">
+      <c r="A20" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" customHeight="1">
+      <c r="A21" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30" customHeight="1">
+      <c r="A22" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30" customHeight="1">
+      <c r="A23" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30" customHeight="1">
+      <c r="A24" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="30" customHeight="1">
+      <c r="A25" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30" customHeight="1">
+      <c r="A26" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30" customHeight="1">
+      <c r="A27" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30" customHeight="1">
+      <c r="A28" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30" customHeight="1">
+      <c r="A29" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="30" customHeight="1">
+      <c r="A30" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="30" customHeight="1">
+      <c r="A31" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30" customHeight="1">
+      <c r="A32" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30" customHeight="1">
+      <c r="A33" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30" customHeight="1">
+      <c r="A34" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="A23" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E34"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="A23" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1">
+      <c r="A24" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1">
+      <c r="A25" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" customHeight="1">
+      <c r="A26" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" customHeight="1">
+      <c r="A27" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" customHeight="1">
+      <c r="A28" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" customHeight="1">
+      <c r="A29" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" customHeight="1">
+      <c r="A30" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" customHeight="1">
+      <c r="A31" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" customHeight="1">
+      <c r="A32" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30" customHeight="1">
+      <c r="A33" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30" customHeight="1">
+      <c r="A34" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E44"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1436,7 +4176,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1444,7 +4184,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>51</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1452,7 +4192,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -1471,38 +4211,1190 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
-      <c r="A14" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>72</v>
+      <c r="A14" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="A23" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1">
+      <c r="A24" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1">
+      <c r="A25" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" customHeight="1">
+      <c r="A26" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" customHeight="1">
+      <c r="A27" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" customHeight="1">
+      <c r="A28" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" customHeight="1">
+      <c r="A29" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" customHeight="1">
+      <c r="A30" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" customHeight="1">
+      <c r="A31" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" customHeight="1">
+      <c r="A32" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30" customHeight="1">
+      <c r="A33" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30" customHeight="1">
+      <c r="A34" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30" customHeight="1">
+      <c r="A35" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="30" customHeight="1">
+      <c r="A36" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30" customHeight="1">
+      <c r="A37" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30" customHeight="1">
+      <c r="A38" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="30" customHeight="1">
+      <c r="A39" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="30" customHeight="1">
+      <c r="A40" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="30" customHeight="1">
+      <c r="A41" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="30" customHeight="1">
+      <c r="A42" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="30" customHeight="1">
+      <c r="A43" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="30" customHeight="1">
+      <c r="A44" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:2" ht="30" customHeight="1">
+      <c r="A17" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>111</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
       <c r="A15" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E34"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:2" ht="30" customHeight="1">
+      <c r="A17" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" customHeight="1">
+      <c r="A18" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" customHeight="1">
+      <c r="A19" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" customHeight="1">
+      <c r="A20" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" customHeight="1">
+      <c r="A21" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30" customHeight="1">
+      <c r="A22" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30" customHeight="1">
+      <c r="A23" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30" customHeight="1">
+      <c r="A24" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="30" customHeight="1">
+      <c r="A25" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30" customHeight="1">
+      <c r="A26" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30" customHeight="1">
+      <c r="A27" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30" customHeight="1">
+      <c r="A28" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30" customHeight="1">
+      <c r="A29" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="30" customHeight="1">
+      <c r="A30" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="30" customHeight="1">
+      <c r="A31" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30" customHeight="1">
+      <c r="A32" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30" customHeight="1">
+      <c r="A33" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30" customHeight="1">
+      <c r="A34" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>73</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>99</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E30"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="21" t="s">
         <v>74</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -1513,10 +5405,10 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -1527,10 +5419,10 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="30" customHeight="1">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="21" t="s">
         <v>75</v>
       </c>
       <c r="D18" s="6" t="s">
@@ -1541,10 +5433,10 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" customHeight="1">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="21" t="s">
         <v>76</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -1555,10 +5447,10 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="30" customHeight="1">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="21" t="s">
         <v>77</v>
       </c>
       <c r="D20" s="6" t="s">
@@ -1569,10 +5461,10 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" customHeight="1">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D21" s="6" t="s">
@@ -1583,10 +5475,10 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="30" customHeight="1">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="21" t="s">
         <v>79</v>
       </c>
       <c r="D22" s="6" t="s">
@@ -1597,10 +5489,10 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="30" customHeight="1">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="21" t="s">
         <v>80</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -1611,10 +5503,10 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" customHeight="1">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="21" t="s">
         <v>81</v>
       </c>
       <c r="D24" s="6" t="s">
@@ -1625,10 +5517,10 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" customHeight="1">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="21" t="s">
         <v>82</v>
       </c>
       <c r="D25" s="6" t="s">
@@ -1639,10 +5531,10 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="30" customHeight="1">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="21" t="s">
         <v>83</v>
       </c>
       <c r="D26" s="6" t="s">
@@ -1653,10 +5545,10 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="30" customHeight="1">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="21" t="s">
         <v>84</v>
       </c>
       <c r="D27" s="6" t="s">
@@ -1667,31 +5559,315 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="30" customHeight="1">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="21" t="s">
         <v>85</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
     </row>
     <row r="29" spans="1:5" ht="30" customHeight="1">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="21" t="s">
         <v>86</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
     </row>
     <row r="30" spans="1:5" ht="30" customHeight="1">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="24" t="s">
         <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:2" ht="30" customHeight="1">
+      <c r="A17" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1706,10 +5882,270 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="A23" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1">
+      <c r="A24" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1">
+      <c r="A25" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" customHeight="1">
+      <c r="A26" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" customHeight="1">
+      <c r="A27" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" customHeight="1">
+      <c r="A28" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" customHeight="1">
+      <c r="A29" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" customHeight="1">
+      <c r="A30" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" customHeight="1">
+      <c r="A31" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" customHeight="1">
+      <c r="A32" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1756,7 +6192,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>89</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1764,7 +6200,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -1783,266 +6219,295 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
-      <c r="A14" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>72</v>
+      <c r="A14" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>16</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>21</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="A15" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>22</v>
+      <c r="A15" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>141</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>71</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
-      <c r="A16" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>75</v>
+      <c r="A16" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>151</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>21</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1">
-      <c r="A17" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="22" t="s">
+      <c r="A17" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="A23" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1">
+      <c r="A24" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1">
+      <c r="A25" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" customHeight="1">
+      <c r="A26" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" customHeight="1">
+      <c r="A27" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" customHeight="1">
+      <c r="A28" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" customHeight="1">
+      <c r="A29" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" customHeight="1">
+      <c r="A30" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" customHeight="1">
+      <c r="A31" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" customHeight="1">
+      <c r="A32" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="B32" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1">
-      <c r="A18" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-    </row>
-    <row r="19" spans="1:5" ht="30" customHeight="1">
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+    </row>
+    <row r="33" spans="1:2" ht="30" customHeight="1">
+      <c r="A33" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30" customHeight="1">
+      <c r="A34" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30" customHeight="1">
+      <c r="A35" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="30" customHeight="1">
+      <c r="A36" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30" customHeight="1">
+      <c r="A37" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30" customHeight="1">
+      <c r="A38" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="30" customHeight="1">
+      <c r="A39" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="30" customHeight="1">
+      <c r="A40" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="30" customHeight="1">
+      <c r="A41" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="30" customHeight="1">
+      <c r="A42" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="30" customHeight="1">
+      <c r="A43" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="30" customHeight="1">
+      <c r="A44" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>87</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FF00B0F0"/>
-  </sheetPr>
-  <dimension ref="B2:E19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="52.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="89.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.140625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:5">
-      <c r="B2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="15">
-      <c r="B3" s="21" t="str">
-        <f>aux_pontualidade_pivot!B9</f>
-        <v>[log].[aux_pontualidade_pivot]</v>
-      </c>
-      <c r="C3" s="18" t="str">
-        <f>aux_pontualidade_pivot!B8</f>
-        <v>MIS_STAGING</v>
-      </c>
-      <c r="D3" s="19" t="str">
-        <f>aux_pontualidade_pivot!B10</f>
-        <v>N:\Migracao\Logistica Prod\Pontualidade\stg_logistica_pontualidade.dtsx</v>
-      </c>
-      <c r="E3" s="13"/>
-    </row>
-    <row r="4" spans="2:5" ht="15">
-      <c r="B4" s="21" t="str">
-        <f>stg_pontualidade_pedido!B9</f>
-        <v>[log].[stg_pontualidade_pedido]</v>
-      </c>
-      <c r="C4" s="18" t="str">
-        <f>stg_pontualidade_pedido!B8</f>
-        <v>MIS_STAGING</v>
-      </c>
-      <c r="D4" s="19" t="str">
-        <f>stg_pontualidade_pedido!B10</f>
-        <v>N:\Migracao\Logistica Prod\Pontualidade\stg_logistica_pontualidade.dtsx</v>
-      </c>
-      <c r="E4" s="13"/>
-    </row>
-    <row r="5" spans="2:5" ht="15">
-      <c r="B5" s="21" t="str">
-        <f>stg_pontualidade_ped_cancelado!B9</f>
-        <v>[log].[stg_pontualidade_pedido_cancelado]</v>
-      </c>
-      <c r="C5" s="18" t="str">
-        <f>stg_pontualidade_ped_cancelado!B8</f>
-        <v>MIS_STAGING</v>
-      </c>
-      <c r="D5" s="19" t="str">
-        <f>stg_pontualidade_ped_cancelado!B10</f>
-        <v>N:\Migracao\Logistica Prod\Pontualidade\stg_logistica_pontualidade.dtsx</v>
-      </c>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" spans="2:5" ht="15">
-      <c r="B6" s="21" t="str">
-        <f>stg_planta!B9</f>
-        <v>[log].[stg_planta]</v>
-      </c>
-      <c r="C6" s="18" t="str">
-        <f>stg_planta!B8</f>
-        <v>MIS_STAGING</v>
-      </c>
-      <c r="D6" s="19" t="str">
-        <f>stg_planta!B10</f>
-        <v>N:\Migracao\Logistica Prod\Pontualidade\stg_logistica_pontualidade.dtsx</v>
-      </c>
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" spans="2:5" ht="15">
-      <c r="B7" s="21"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="13"/>
-    </row>
-    <row r="8" spans="2:5" ht="15">
-      <c r="B8" s="21"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="13"/>
-    </row>
-    <row r="9" spans="2:5" ht="15">
-      <c r="B9" s="21"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="13"/>
-    </row>
-    <row r="10" spans="2:5" ht="15">
-      <c r="B10" s="21"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="13"/>
-    </row>
-    <row r="11" spans="2:5" ht="15">
-      <c r="B11" s="21"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="13"/>
-    </row>
-    <row r="12" spans="2:5" ht="15">
-      <c r="B12" s="21"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="13"/>
-    </row>
-    <row r="13" spans="2:5" ht="15">
-      <c r="B13" s="21"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="13"/>
-    </row>
-    <row r="14" spans="2:5" ht="15">
-      <c r="B14" s="21"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="13"/>
-    </row>
-    <row r="15" spans="2:5" ht="15">
-      <c r="B15" s="21"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="13"/>
-    </row>
-    <row r="16" spans="2:5" ht="15">
-      <c r="B16" s="21"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="13"/>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="20"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="13"/>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="12"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="13"/>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="14"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="16"/>
-    </row>
-  </sheetData>
-  <sortState ref="B3:E14">
-    <sortCondition ref="D3"/>
-  </sortState>
-  <hyperlinks>
-    <hyperlink ref="B3" location="aux_pontualidade_pivot!A1" display="aux_pontualidade_pivot!A1"/>
-    <hyperlink ref="B4" location="stg_pontualidade_pedido!A1" display="stg_pontualidade_pedido!A1"/>
-    <hyperlink ref="B5" location="stg_pontualidade_ped_cancelado!A1" display="stg_pontualidade_ped_cancelado!A1"/>
-    <hyperlink ref="B6" location="stg_planta!A1" display="stg_planta!A1"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
@@ -2051,9 +6516,9 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -2099,7 +6564,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2126,82 +6591,806 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
-      <c r="A14" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>73</v>
+      <c r="A14" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>16</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>105</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="A23" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1">
+      <c r="A24" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E35"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="A23" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1">
+      <c r="A24" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1">
+      <c r="A25" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" customHeight="1">
+      <c r="A26" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" customHeight="1">
+      <c r="A27" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" customHeight="1">
+      <c r="A28" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" customHeight="1">
+      <c r="A29" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" customHeight="1">
+      <c r="A30" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" customHeight="1">
+      <c r="A31" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" customHeight="1">
+      <c r="A32" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30" customHeight="1">
+      <c r="A33" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30" customHeight="1">
+      <c r="A34" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30" customHeight="1">
+      <c r="A35" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
       <c r="A15" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1">
-      <c r="A16" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="B16" s="22" t="s">
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:2" ht="30" customHeight="1">
+      <c r="A17" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1">
-      <c r="A17" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="B17" s="22" t="s">
+    </row>
+    <row r="18" spans="1:2" ht="30" customHeight="1">
+      <c r="A18" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" customHeight="1">
+      <c r="A19" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B19" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1">
-      <c r="A18" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="B18" s="22" t="s">
+    </row>
+    <row r="20" spans="1:2" ht="30" customHeight="1">
+      <c r="A20" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" s="21" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="30" customHeight="1">
-      <c r="A19" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="B19" s="22" t="s">
+    <row r="21" spans="1:2" ht="30" customHeight="1">
+      <c r="A21" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" s="21" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30" customHeight="1">
-      <c r="A20" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="B20" s="22" t="s">
+    <row r="22" spans="1:2" ht="30" customHeight="1">
+      <c r="A22" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" s="21" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="30" customHeight="1">
-      <c r="A21" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="B21" s="25" t="s">
+    <row r="23" spans="1:2" ht="30" customHeight="1">
+      <c r="A23" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="B23" s="24" t="s">
         <v>104</v>
       </c>
     </row>
